--- a/biology/Médecine/Ostéomalacie/Ostéomalacie.xlsx
+++ b/biology/Médecine/Ostéomalacie/Ostéomalacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéomalacie (de osteo, "os" et malakia, "mollesse") est une décalcification osseuse induite par un défaut de minéralisation (manque d'ions calcium et phosphate) de la trame protéique du squelette. 
 C'est en quelque sorte l'équivalent chez l’adulte du rachitisme de l’enfant.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'ostéomalacie est une ostéopathie généralisée, essentiellement liée à une carence en vitamine D, caractérisée par un défaut de minéralisation primaire de la matrice osseuse déposée par les ostéoblastes. Il y a donc une accumulation anormale de tissu ostéoïde non minéralisé entraînant une fragilité osseuse.Elle diffère radicalement de l’ostéoporose où la trame osseuse est raréfiée, mais la minéralisation normale.
 Les symptômes les plus fréquents sont la fatigue musculaire et les  douleurs osseuses (lombalgie chronique, douleurs des genoux). 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre la grossesse et l'allaitement qui sont des causes passagères d'ostéomalacie, plusieurs grandes causes sont connues (pouvant dans certains cas cumuler leurs effets) :
 synthèse insuffisante de vitamine D par défaut d'exposition au soleil et/ou peau foncée (cause de loin la plus fréquente) ou carences alimentaires ;
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les symptômes les plus fréquents (mais peu spécifiques) sont :
 fatigue musculaire ;
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie est souvent confondue avec une arthrose ou un début de fibromyalgie. 
 L'analyse sanguine révèle un taux sanguin de la vitamine D très bas avec parfois une calcémie et phosphorémie anormalement basse.Le dosage de la vitamine D permet le diagnostic précoce mais il est rarement effectué à ce stade du fait de la faible spécificité de ces symptômes.Parfois, c'est un examen radiologique qui révèle la maladie. En raison du manque de calcium et de la densité osseuse diminuée, le squelette est presque « radiotransparent » : image floue ou pâle, avec fissures et déformations osseuses dites « stries de Looser-Milkmann » (lignes plus claires apparaissant transversalement plus ou moins symétriquement sur la diaphyse - partie moyenne et centrale des os longs). Ces stries sont surtout visibles sur la branche ischio-pubienne (partie inférieure du bassin), le thorax, le col du fémur, le tibia, les côtes et les omoplates.L'os iliaque tend peu à peu à s'aplatir, pendant que les vertèbres se tassent et que les os longs se courbent sous le poids. 
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,9 +687,11 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À un stade très avancé (complications), l'ostéomalacie provoque des fractures spontanées et on remarque souvent de petites fissures sur les os dont les plus atteints sont le bassin, les vertèbres et les fémurs, éventuellement aggravée par des crises de tétanie[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À un stade très avancé (complications), l'ostéomalacie provoque des fractures spontanées et on remarque souvent de petites fissures sur les os dont les plus atteints sont le bassin, les vertèbres et les fémurs, éventuellement aggravée par des crises de tétanie
 </t>
         </is>
       </c>
@@ -680,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,7 +720,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une pathologie plus fréquente chez les sujets privés d'exposition solaire et chez les sujets à peau foncée ou noire, surtout s'ils vivent sous des latitudes peu ensoleillées. On la guérit dans ces cas par la supplémentation en vitamine D.
 L'ostéomalacie est moins fréquente en Amérique du Nord où de nombreux aliments de base (lait, yaourts, céréales) sont systématiquement enrichis en vitamine D.
@@ -712,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ost%C3%A9omalacie</t>
+          <t>Ostéomalacie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,7 +754,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement de base est l'administration de vitamine D (Ergocalciférol ou D2, Cholécalciférol ou D3) et la consommation d'aliments riches en vitamine D, et une exposition suffisante au soleil. 
 Si la vitamine D est sans effet (trouble métabolique de « vitamino-résistance », dans le cas par exemple d'une « ostéomalacie axiale » (forme rare d'ostéomalacie vitaminorésistante, qui apparait chez les plus de 50 ans),  le 25 hydroxycholécalciférol (Dédrogyl) peut être utilisé… et le médecin doit rechercher une cause primaire. L'ostéomalacie hypophosphatémique familiale peut être traitée par une forme « prétransformée » de la vitamine D (calcitriol) avec éventuel complément en phosphore.
